--- a/Programmierer/Snippets; Protokolle; Klassen; Module; etc/Client-Server Protokoll.xlsx
+++ b/Programmierer/Snippets; Protokolle; Klassen; Module; etc/Client-Server Protokoll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\SchulProjekt\Programmierer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\SchulProjekt\Programmierer\Snippets; Protokolle; Klassen; Module; etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>Syntax</t>
   </si>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t xml:space="preserve">Der Server gibt den Client die Aktuelle Port liste zurück (Status werden als integern angeben die liste ist eine Structukture die im Module modCommands liegt </t>
+  </si>
+  <si>
+    <t>Roboter Commands</t>
+  </si>
+  <si>
+    <t>andere Commands</t>
+  </si>
+  <si>
+    <t>Connect Port</t>
+  </si>
+  <si>
+    <t>CONNECT|&lt;port&gt;</t>
+  </si>
+  <si>
+    <t>Der Client verbindete sich auf den Standart port und muss dann nach dieser nachricht sich auf dem subserver reconnecten</t>
   </si>
 </sst>
 </file>
@@ -343,7 +358,21 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -675,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,100 +746,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -821,13 +832,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -838,13 +849,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -855,13 +866,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -872,13 +883,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -889,13 +900,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -906,13 +917,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -923,64 +934,64 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
@@ -991,13 +1002,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
@@ -1008,13 +1019,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
@@ -1025,58 +1036,64 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
@@ -1086,31 +1103,25 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
@@ -1121,30 +1132,30 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
@@ -1155,33 +1166,94 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D21:G1048576 D2:G18">
+  <conditionalFormatting sqref="D3:G4 D7:G21 D24:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:G22">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:G23">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:G19">
+  <conditionalFormatting sqref="D6:G6">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:G20">
+  <conditionalFormatting sqref="D2:G2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>

--- a/Programmierer/Snippets; Protokolle; Klassen; Module; etc/Client-Server Protokoll.xlsx
+++ b/Programmierer/Snippets; Protokolle; Klassen; Module; etc/Client-Server Protokoll.xlsx
@@ -710,7 +710,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
